--- a/Minoh_room.xlsx
+++ b/Minoh_room.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecsosaka-my.sharepoint.com/personal/u304382c_ecs_osaka-u_ac_jp/Documents/DAIKIN/Minoh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE08B18-0297-4D16-8AEE-461295DCE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CEE08B18-0297-4D16-8AEE-461295DCE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB441FA-5F18-4E47-BE58-E2FFA760E3C5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{19708D43-31FD-49D8-87B7-D3D56C27BC64}"/>
+    <workbookView minimized="1" xWindow="340" yWindow="340" windowWidth="15510" windowHeight="16970" xr2:uid="{19708D43-31FD-49D8-87B7-D3D56C27BC64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Minoh_room" sheetId="3" r:id="rId1"/>
+    <sheet name="Minoh_room23" sheetId="3" r:id="rId1"/>
     <sheet name="Minoh_room15" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1051,7 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71B9DC2-D269-443B-BF80-1DFDE31B4185}">
   <dimension ref="A1:R736"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="T524" sqref="T524"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
